--- a/994-E.164C/T-SP-E.164C-2011.xlsx
+++ b/994-E.164C/T-SP-E.164C-2011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulgogi/src/ituob/service-publications-data/994-E.164C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB24AA8-8751-CC45-A9DA-E5798BDA387D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A862466-D540-5249-8E26-424EE564D475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="1035">
   <si>
     <t>title.en</t>
   </si>
@@ -3160,6 +3160,9 @@
   </si>
   <si>
     <t>-11; -10</t>
+  </si>
+  <si>
+    <t>type=array</t>
   </si>
 </sst>
 </file>
@@ -3539,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3756,7 +3759,9 @@
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>1034</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
